--- a/DataAndAnalysis/data/analysis_throwdata.xlsx
+++ b/DataAndAnalysis/data/analysis_throwdata.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slontschar/Code/private/GravityBallHapticFeedback/DataAndAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD144BFF-52DE-7747-A1C6-03CCB3ECE063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643525C-E8F7-CE4E-ADBA-926C16AA4922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{19A0B7E0-517D-D240-879E-96FA9B13AF57}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="best and worst" sheetId="2" r:id="rId2"/>
+    <sheet name="best distance" sheetId="3" r:id="rId3"/>
+    <sheet name="worst learner" sheetId="4" r:id="rId4"/>
+    <sheet name="best learner" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">(all!$B$1:$C$1,all!#REF!)</definedName>
@@ -51,12 +55,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
+  <si>
+    <t>distance_vr</t>
+  </si>
+  <si>
+    <t>distance_mr</t>
+  </si>
   <si>
     <t>distance_vr_SD</t>
   </si>
   <si>
     <t>distance_mr_SD</t>
+  </si>
+  <si>
+    <t>learning_vr</t>
+  </si>
+  <si>
+    <t>learning_mr</t>
   </si>
   <si>
     <t>learning_vr_SD</t>
@@ -185,9 +201,6 @@
     <t>Baseball #2</t>
   </si>
   <si>
-    <t>Weight 0.1</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
@@ -202,12 +215,33 @@
   <si>
     <t>MR SD</t>
   </si>
+  <si>
+    <t>Distance SD</t>
+  </si>
+  <si>
+    <t>Learning SD</t>
+  </si>
+  <si>
+    <t>Worst Distance</t>
+  </si>
+  <si>
+    <t>Worst Learner</t>
+  </si>
+  <si>
+    <t>SD half</t>
+  </si>
+  <si>
+    <t>Best Learner</t>
+  </si>
+  <si>
+    <t>Best Distance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +260,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,10 +289,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +722,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -763,7 +805,7 @@
                   <c:v>Baseball #1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Weight 0.1</c:v>
+                  <c:v>Weight 0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Weight 1</c:v>
@@ -823,7 +865,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -906,7 +948,7 @@
                   <c:v>Baseball #1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Weight 0.1</c:v>
+                  <c:v>Weight 0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Weight 1</c:v>
@@ -1049,7 +1091,7 @@
                   <c:v>Baseball #1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Weight 0.1</c:v>
+                  <c:v>Weight 0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Weight 1</c:v>
@@ -1192,7 +1234,7 @@
                   <c:v>Baseball #1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Weight 0.1</c:v>
+                  <c:v>Weight 0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Weight 1</c:v>
@@ -1535,7 +1577,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1678,7 +1720,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2104,7 +2146,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2247,7 +2289,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2669,7 +2711,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2776,7 +2818,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3070,6 +3112,2090 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Worst third distance	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+              <a:t>   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>	Best</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+              <a:t> third distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11655657626130067"/>
+          <c:y val="4.7619047619047616E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'best and worst'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'best and worst'!$B$7:$B$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>4.0256699999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1659000000000004E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'best and worst'!$B$7:$B$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>4.0256699999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1659000000000004E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('best and worst'!$B$1:$C$1,'best and worst'!$J$1:$K$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('best and worst'!$B$2:$C$2,'best and worst'!$J$2:$K$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.57752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7380599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4241299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2ECE-C849-AA23-077D8FD6BA26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'best and worst'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('best and worst'!$C$7:$C$8,'best and worst'!$K$7:$K$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.13608200000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.218614</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1203495</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.171315</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('best and worst'!$C$7:$C$8,'best and worst'!$K$7:$K$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.13608200000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.218614</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1203495</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.171315</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('best and worst'!$B$1:$C$1,'best and worst'!$J$1:$K$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('best and worst'!$B$3:$C$3,'best and worst'!$J$3:$K$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.69659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6134200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5561199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2ECE-C849-AA23-077D8FD6BA26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1115700720"/>
+        <c:axId val="1378479136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1115700720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1378479136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1378479136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1115700720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Worst third</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+              <a:t> learner		Best third learner</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'best and worst'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('best and worst'!$F$7:$F$8,'best and worst'!$N$7:$N$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.9518500000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.17539299999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.842345E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.13463549999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('best and worst'!$F$7:$F$8,'best and worst'!$N$7:$N$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.9518500000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.17539299999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.842345E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.13463549999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('best and worst'!$F$1:$G$1,'best and worst'!$N$1:$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('best and worst'!$F$2:$G$2,'best and worst'!$N$2:$O$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0877600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2818000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4279599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9183399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-761C-9A45-B5D1-D1456E8D74DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'best and worst'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('best and worst'!$G$7:$G$8,'best and worst'!$O$7:$O$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.7863849999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14041149999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1173499999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.1685000000000002E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('best and worst'!$G$7:$G$8,'best and worst'!$O$7:$O$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.7863849999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14041149999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1173499999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.1685000000000002E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('best and worst'!$F$1:$G$1,'best and worst'!$N$1:$O$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('best and worst'!$F$3:$G$3,'best and worst'!$N$3:$O$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2141500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2045600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3373600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9920800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-761C-9A45-B5D1-D1456E8D74DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1195765840"/>
+        <c:axId val="1117149552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1195765840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117149552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1117149552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1195765840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Best third distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'best and worst'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'best and worst'!$J$7:$J$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>6.5424499999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.2524499999999997E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'best and worst'!$J$7:$J$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>6.5424499999999997E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.2524499999999997E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'best and worst'!$J$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'best and worst'!$J$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.02207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4241299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AFF-ED46-B299-B00846744BF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'best and worst'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'best and worst'!$K$7:$K$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.1203495</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.171315</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'best and worst'!$K$7:$K$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.1203495</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.171315</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'best and worst'!$J$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'best and worst'!$J$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.02146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5561199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AFF-ED46-B299-B00846744BF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1117713968"/>
+        <c:axId val="1419301328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1117713968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419301328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1419301328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117713968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Best third learner</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'best and worst'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'best and worst'!$N$7:$N$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>4.842345E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13463549999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'best and worst'!$N$7:$N$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>4.842345E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.13463549999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'best and worst'!$N$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'best and worst'!$N$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4279599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9183399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2C7-564E-A357-E0CD35E6362B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'best and worst'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'best and worst'!$O$7:$O$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>6.1173499999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.1685000000000002E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'best and worst'!$O$7:$O$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>6.1173499999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.1685000000000002E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'best and worst'!$N$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'best and worst'!$N$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.3373600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9920800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2C7-564E-A357-E0CD35E6362B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1197255152"/>
+        <c:axId val="1191833776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1197255152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191833776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1191833776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197255152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3231,6 +5357,166 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5785,6 +8071,2018 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5962,6 +10260,155 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DBC361-9BA1-7444-8C3D-6DCB8F330EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A9FE23-F4E9-7F40-936D-7EAB81123ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D94848-5DD9-9B4F-A25C-BE9E98677A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C681FD85-3523-5C4F-A8B0-55C8AEFFDA15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6269,8 +10716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410FB15A-7CC5-CB44-9246-2B10C18D7287}">
   <dimension ref="A1:AA1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6284,28 +10731,28 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -6406,10 +10853,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -6436,7 +10883,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>1.3159799999999999</v>
@@ -6469,7 +10916,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>1.3245199999999999</v>
@@ -6554,64 +11001,64 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -6622,64 +11069,64 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
+      <c r="S10" s="1" t="s">
+        <v>35</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -6786,14 +11233,14 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -6817,34 +11264,34 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -6864,7 +11311,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>1.4443699999999999</v>
@@ -6882,7 +11329,7 @@
         <v>1.35124</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1">
         <v>1.5201</v>
@@ -6917,7 +11364,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>1.30989</v>
@@ -6935,7 +11382,7 @@
         <v>1.28776</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1">
         <v>1.4532099999999999</v>
@@ -6970,7 +11417,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>0.21009149999999999</v>
@@ -6988,7 +11435,7 @@
         <v>0.18947449999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1">
         <v>0.34029599999999999</v>
@@ -7023,7 +11470,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>0.25163999999999997</v>
@@ -7041,7 +11488,7 @@
         <v>0.29672900000000002</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H18" s="1">
         <v>0.26729550000000002</v>
@@ -7104,16 +11551,16 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7140,7 +11587,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>1.4443699999999999</v>
@@ -7179,7 +11626,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1">
         <v>1.3425800000000001</v>
@@ -7218,7 +11665,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
         <v>1.26508</v>
@@ -7257,7 +11704,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
         <v>1.1713199999999999</v>
@@ -7296,7 +11743,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <v>1.35124</v>
@@ -7655,64 +12102,64 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -35601,4 +40048,593 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BD4C5F-A795-F34E-A333-714918E4B4D7}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>1.57752</v>
+      </c>
+      <c r="C2">
+        <v>1.7380599999999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.0877600000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.2818000000000001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2">
+        <v>1.02207</v>
+      </c>
+      <c r="K2">
+        <v>1.4241299999999999</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2">
+        <v>1.4279599999999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1.9183399999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>1.69659</v>
+      </c>
+      <c r="C3">
+        <v>1.6134200000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.2141500000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.2045600000000001</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>1.02146</v>
+      </c>
+      <c r="K3">
+        <v>1.5561199999999999</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3">
+        <v>1.3373600000000001</v>
+      </c>
+      <c r="O3">
+        <v>1.9920800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>8.0513399999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.27216400000000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.179037</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9.5727699999999999E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>0.13084899999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.240699</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5">
+        <v>9.68469E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.122347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0.18331800000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.43722800000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.35078599999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.28082299999999999</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6">
+        <v>0.12504899999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.34262999999999999</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6">
+        <v>0.26927099999999998</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.10337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <f>B5/2</f>
+        <v>4.0256699999999999E-2</v>
+      </c>
+      <c r="C7">
+        <f>C5/2</f>
+        <v>0.13608200000000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <f>F5/2</f>
+        <v>8.9518500000000001E-2</v>
+      </c>
+      <c r="G7">
+        <f>G5/2</f>
+        <v>4.7863849999999999E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7">
+        <f>J5/2</f>
+        <v>6.5424499999999997E-2</v>
+      </c>
+      <c r="K7">
+        <f>K5/2</f>
+        <v>0.1203495</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7">
+        <f>N5/2</f>
+        <v>4.842345E-2</v>
+      </c>
+      <c r="O7">
+        <f>O5/2</f>
+        <v>6.1173499999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <f>B6/2</f>
+        <v>9.1659000000000004E-2</v>
+      </c>
+      <c r="C8">
+        <f>C6/2</f>
+        <v>0.218614</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <f>F6/2</f>
+        <v>0.17539299999999999</v>
+      </c>
+      <c r="G8">
+        <f>G6/2</f>
+        <v>0.14041149999999999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <f>J6/2</f>
+        <v>6.2524499999999997E-2</v>
+      </c>
+      <c r="K8">
+        <f>K6/2</f>
+        <v>0.171315</v>
+      </c>
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <f>N6/2</f>
+        <v>0.13463549999999999</v>
+      </c>
+      <c r="O8">
+        <f>O6/2</f>
+        <v>5.1685000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60087924-ECA1-3948-82B0-CDD1A3F003E2}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.02207</v>
+      </c>
+      <c r="B2">
+        <v>1.02146</v>
+      </c>
+      <c r="C2">
+        <v>1.4241299999999999</v>
+      </c>
+      <c r="D2">
+        <v>1.5561199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.13084899999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.12504899999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.240699</v>
+      </c>
+      <c r="D5">
+        <v>0.34262999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>A5/2</f>
+        <v>6.5424499999999997E-2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:D6" si="0">B5/2</f>
+        <v>6.2524499999999997E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.1203495</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.171315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D66A4FC-816A-4C4C-BEC1-296B66B83475}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.0877600000000001</v>
+      </c>
+      <c r="B2">
+        <v>1.2141500000000001</v>
+      </c>
+      <c r="C2">
+        <v>1.2818000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1.2045600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.179037</v>
+      </c>
+      <c r="B5">
+        <v>0.35078599999999999</v>
+      </c>
+      <c r="C5">
+        <v>9.5727699999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.28082299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>A5/2</f>
+        <v>8.9518500000000001E-2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:D6" si="0">B5/2</f>
+        <v>0.17539299999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.7863849999999999E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.14041149999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADACD14-DB5F-4441-AB21-AAA2FC0573BC}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.4279599999999999</v>
+      </c>
+      <c r="B2">
+        <v>1.3373600000000001</v>
+      </c>
+      <c r="C2">
+        <v>9.68469E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.26927099999999998</v>
+      </c>
+      <c r="E2">
+        <v>1.9183399999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.9920800000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.122347</v>
+      </c>
+      <c r="H2">
+        <v>0.10337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataAndAnalysis/data/analysis_throwdata.xlsx
+++ b/DataAndAnalysis/data/analysis_throwdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slontschar/Code/private/GravityBallHapticFeedback/DataAndAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643525C-E8F7-CE4E-ADBA-926C16AA4922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786091C0-1207-2147-9C57-6982B96A6B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{19A0B7E0-517D-D240-879E-96FA9B13AF57}"/>
   </bookViews>
@@ -19,25 +19,7 @@
     <sheet name="worst learner" sheetId="4" r:id="rId4"/>
     <sheet name="best learner" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(all!$B$1:$C$1,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(all!$B$2:$C$2,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">(all!$B$1:$C$1,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">(all!$B$2:$C$2,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">(all!$B$1:$C$1,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">(all!$B$2:$C$2,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">(all!$B$1:$C$1,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">(all!$B$2:$C$2,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(all!$B$1:$C$1,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">(all!$B$2:$C$2,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">(all!$B$1:$C$1,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">(all!$B$2:$C$2,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">(all!$B$1:$C$1,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">(all!$B$2:$C$2,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">(all!$B$1:$C$1,all!#REF!)</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">(all!$B$2:$C$2,all!#REF!)</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
   <si>
     <t>distance_vr</t>
   </si>
@@ -156,9 +138,6 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>Learning</t>
-  </si>
-  <si>
     <t>Baseball VR</t>
   </si>
   <si>
@@ -236,6 +215,15 @@
   <si>
     <t>Best Distance</t>
   </si>
+  <si>
+    <t>Improvement VR</t>
+  </si>
+  <si>
+    <t>Improvement MR</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
 </sst>
 </file>
 
@@ -300,6 +288,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF76D7C4"/>
+      <color rgb="FFEC7063"/>
+      <color rgb="FFBB8FCE"/>
+      <color rgb="FF00FDFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -660,7 +656,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Distance and Learning</a:t>
+              <a:t>Distance and Improvement</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -722,7 +718,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EC7063"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -865,7 +861,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="76D7C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1001,7 +997,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Learning VR</c:v>
+                  <c:v>Improvement VR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1144,7 +1140,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Learning MR</c:v>
+                  <c:v>Improvement MR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1370,7 +1366,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1453,12 +1451,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1577,7 +1570,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EC7063"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1720,7 +1713,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="76D7C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1939,7 +1932,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2022,12 +2017,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2085,7 +2075,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Learning</a:t>
+              <a:t>Improvement</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -2146,7 +2136,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EC7063"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2289,7 +2279,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="76D7C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2508,7 +2498,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2591,12 +2583,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2654,7 +2641,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Average Distance and Learning</a:t>
+              <a:t>Average Distance and Improvement</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2711,7 +2698,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EC7063"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2776,7 +2763,7 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2818,10 +2805,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="76D7C4"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="76D7C4"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2883,7 +2872,7 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3001,7 +2990,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3084,12 +3075,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3147,7 +3133,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>Worst third distance	</a:t>
+              <a:t>Highest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>distance	</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" baseline="0"/>
@@ -3155,11 +3149,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>	Best</a:t>
+              <a:t>	Lowest </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" baseline="0"/>
-              <a:t> third distance</a:t>
+              <a:t>distance</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1600"/>
           </a:p>
@@ -3225,7 +3219,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EC7063"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3290,13 +3284,13 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3344,7 +3338,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="76D7C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3421,13 +3415,13 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3551,7 +3545,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3634,12 +3630,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3697,11 +3688,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>Worst third</a:t>
+              <a:t>Least improved</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" sz="1600" baseline="0"/>
-              <a:t> learner		Best third learner</a:t>
+              <a:t>	                  Most improved</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1600"/>
           </a:p>
@@ -3759,7 +3750,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EC7063"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3836,13 +3827,13 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3890,7 +3881,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="76D7C4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3967,13 +3958,13 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4098,7 +4089,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4181,12 +4174,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4366,7 +4354,7 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4473,7 +4461,7 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4860,7 +4848,7 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4967,7 +4955,7 @@
                   <c:v>Distance</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Learning</c:v>
+                  <c:v>Improvement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10716,8 +10704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410FB15A-7CC5-CB44-9246-2B10C18D7287}">
   <dimension ref="A1:AA1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10856,7 +10844,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -10883,7 +10871,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>1.3159799999999999</v>
@@ -10916,7 +10904,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>1.3245199999999999</v>
@@ -11001,7 +10989,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
@@ -11010,7 +10998,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
@@ -11022,7 +11010,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
@@ -11034,7 +11022,7 @@
         <v>30</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>28</v>
@@ -11046,7 +11034,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>28</v>
@@ -11069,64 +11057,64 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
+      <c r="K10" s="1" t="s">
+        <v>39</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>39</v>
+      <c r="O10" s="1" t="s">
+        <v>41</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>42</v>
+      <c r="R10" s="1" t="s">
+        <v>33</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -11240,7 +11228,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -11264,34 +11252,34 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -11311,7 +11299,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2">
         <v>1.4443699999999999</v>
@@ -11329,7 +11317,7 @@
         <v>1.35124</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1">
         <v>1.5201</v>
@@ -11364,7 +11352,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>1.30989</v>
@@ -11382,7 +11370,7 @@
         <v>1.28776</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1">
         <v>1.4532099999999999</v>
@@ -11417,7 +11405,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>0.21009149999999999</v>
@@ -11435,7 +11423,7 @@
         <v>0.18947449999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1">
         <v>0.34029599999999999</v>
@@ -11470,7 +11458,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>0.25163999999999997</v>
@@ -11488,7 +11476,7 @@
         <v>0.29672900000000002</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1">
         <v>0.26729550000000002</v>
@@ -11557,10 +11545,10 @@
         <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -11587,7 +11575,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
         <v>1.4443699999999999</v>
@@ -11626,7 +11614,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1">
         <v>1.3425800000000001</v>
@@ -11665,7 +11653,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>1.26508</v>
@@ -11704,7 +11692,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>1.1713199999999999</v>
@@ -11743,7 +11731,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>1.35124</v>
@@ -40055,7 +40043,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40073,46 +40061,46 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
         <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1.57752</v>
@@ -40121,7 +40109,7 @@
         <v>1.7380599999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3">
         <v>1.0877600000000001</v>
@@ -40130,7 +40118,7 @@
         <v>1.2818000000000001</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>1.02207</v>
@@ -40139,7 +40127,7 @@
         <v>1.4241299999999999</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N2">
         <v>1.4279599999999999</v>
@@ -40150,7 +40138,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>1.69659</v>
@@ -40159,7 +40147,7 @@
         <v>1.6134200000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3">
         <v>1.2141500000000001</v>
@@ -40169,7 +40157,7 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>1.02146</v>
@@ -40178,7 +40166,7 @@
         <v>1.5561199999999999</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1.3373600000000001</v>
@@ -40189,34 +40177,34 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3"/>
       <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>54</v>
+      <c r="N4" s="3" t="s">
+        <v>52</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>8.0513399999999999E-2</v>
@@ -40225,7 +40213,7 @@
         <v>0.27216400000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3">
         <v>0.179037</v>
@@ -40234,7 +40222,7 @@
         <v>9.5727699999999999E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>0.13084899999999999</v>
@@ -40243,7 +40231,7 @@
         <v>0.240699</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5">
         <v>9.68469E-2</v>
@@ -40254,7 +40242,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.18331800000000001</v>
@@ -40263,7 +40251,7 @@
         <v>0.43722800000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3">
         <v>0.35078599999999999</v>
@@ -40272,7 +40260,7 @@
         <v>0.28082299999999999</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>0.12504899999999999</v>
@@ -40281,7 +40269,7 @@
         <v>0.34262999999999999</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6">
         <v>0.26927099999999998</v>
@@ -40292,7 +40280,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <f>B5/2</f>
@@ -40303,7 +40291,7 @@
         <v>0.13608200000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <f>F5/2</f>
@@ -40314,7 +40302,7 @@
         <v>4.7863849999999999E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <f>J5/2</f>
@@ -40325,7 +40313,7 @@
         <v>0.1203495</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <f>N5/2</f>
@@ -40338,7 +40326,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <f>B6/2</f>
@@ -40349,7 +40337,7 @@
         <v>0.218614</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <f>F6/2</f>
@@ -40360,7 +40348,7 @@
         <v>0.14041149999999999</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8">
         <f>J6/2</f>
@@ -40371,7 +40359,7 @@
         <v>0.171315</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <f>N6/2</f>
